--- a/diccionario_datos_clean.xlsx
+++ b/diccionario_datos_clean.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\DATA\INE_COVID_cancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027D2684-B53E-4268-8959-8F9F4A3177DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DDFDD2-9DD1-4473-AA14-E5BB2DE5137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>variable</t>
   </si>
@@ -326,6 +327,135 @@
   </si>
   <si>
     <t>Tiempo en días entre el diagnóstico de cáncer y el diagnóstico de COVID</t>
+  </si>
+  <si>
+    <t>co_metabolica</t>
+  </si>
+  <si>
+    <t>co_cardiovascular</t>
+  </si>
+  <si>
+    <t>co_renal</t>
+  </si>
+  <si>
+    <t>co_respiratoria</t>
+  </si>
+  <si>
+    <t>co_neurologica</t>
+  </si>
+  <si>
+    <t>co_HIV</t>
+  </si>
+  <si>
+    <t>co_hepat_B</t>
+  </si>
+  <si>
+    <t>co_hepat_C</t>
+  </si>
+  <si>
+    <t>co_alcoholismo</t>
+  </si>
+  <si>
+    <t>co_H_pylori</t>
+  </si>
+  <si>
+    <t>co_tabaquismo</t>
+  </si>
+  <si>
+    <t>comorb_n</t>
+  </si>
+  <si>
+    <t>fecha_dx_cancer_1</t>
+  </si>
+  <si>
+    <t>icd10_cod_1</t>
+  </si>
+  <si>
+    <t>icd10_desc_1</t>
+  </si>
+  <si>
+    <t>icdo3_cod_1</t>
+  </si>
+  <si>
+    <t>icdo3_desc_1</t>
+  </si>
+  <si>
+    <t>fecha_dx_cancer_2</t>
+  </si>
+  <si>
+    <t>icd10_cod_2</t>
+  </si>
+  <si>
+    <t>icd10_desc_2</t>
+  </si>
+  <si>
+    <t>icdo3_cod_2</t>
+  </si>
+  <si>
+    <t>icdo3_desc_2</t>
+  </si>
+  <si>
+    <t>icd10_loc_ppal</t>
+  </si>
+  <si>
+    <t>tipo_cancer</t>
+  </si>
+  <si>
+    <t>ev_cancer</t>
+  </si>
+  <si>
+    <t>gravedad</t>
+  </si>
+  <si>
+    <t>dias_cancer_covid</t>
+  </si>
+  <si>
+    <t>dias_quim_covid</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Número de comorbilidades (ninguna, una comorbilidad, dos o más comorbilidades, desconocido)</t>
+  </si>
+  <si>
+    <t>Descripción de la morfología del tumor principal</t>
+  </si>
+  <si>
+    <t>Código de la topografía del tumor secundario (si lo hubiera)</t>
+  </si>
+  <si>
+    <t>Descripción de la topografía del tumor secundario (si lo hubiera)</t>
+  </si>
+  <si>
+    <t>Código de la morfología del tumor secundario (si lo hubiera)</t>
+  </si>
+  <si>
+    <t>Descripción de la morfología del tumor secundario (si lo hubiera)</t>
+  </si>
+  <si>
+    <t>Localización anatómica del tumor principal</t>
+  </si>
+  <si>
+    <t>Presencia de más de un tumor maligno (Si, No)</t>
+  </si>
+  <si>
+    <t>Presencia de metástasis (Si, No)</t>
+  </si>
+  <si>
+    <t>Gravedad del cáncer (Grave, Leve)</t>
+  </si>
+  <si>
+    <t>Clasificación del tumor o tumores (Sólido, Hematológico, Ambos)</t>
+  </si>
+  <si>
+    <t>Evolución del tumor principal (In situ, Localizado, Regionalizado, Distante)</t>
+  </si>
+  <si>
+    <t>Tiempo en días entre el inicio de la quimioterapia y el diagnóstico de COVID</t>
   </si>
 </sst>
 </file>
@@ -376,12 +506,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,11 +825,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,4 +1249,417 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9586F632-D505-474E-94FD-53C07351DFC1}">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>